--- a/testExcel_json/excel/商品服务表.xlsx
+++ b/testExcel_json/excel/商品服务表.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="tbl_service" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +28,9 @@
     <t>业务价格</t>
   </si>
   <si>
+    <t>业务负重</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -42,10 +43,22 @@
     <t>price</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>狗粮</t>
+  </si>
+  <si>
+    <t>猫粮</t>
+  </si>
+  <si>
+    <t>营养膏</t>
   </si>
 </sst>
 </file>
@@ -53,19 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,21 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -124,39 +124,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +170,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,17 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +208,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,14 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,73 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,109 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +438,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,20 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +502,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -509,168 +530,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,13 +684,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
@@ -1063,66 +1069,93 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+    <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
+    <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="1">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1130,38 +1163,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>